--- a/wind_solar_time_series_analysis/NCF_Wind_Solar_Charlotte_Boulder_Boston_Tucson.xlsx
+++ b/wind_solar_time_series_analysis/NCF_Wind_Solar_Charlotte_Boulder_Boston_Tucson.xlsx
@@ -1,29 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mhdella\Desktop\wind_time_series_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mhdella\Desktop\wind_solar_time_series_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{AC30D461-8234-4BFF-ADC6-B6D017AD2399}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6B6853-D3A4-451A-AA8C-97362EB9278C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NCF_Wind_Solar_Charlotte_Boulde" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="12">
-  <si>
-    <t>Solar</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="16">
   <si>
     <t>Wind</t>
   </si>
@@ -57,11 +62,38 @@
   <si>
     <t>Solar Energy</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Solar, Modeling by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Clean Sky Irradiance</t>
+    </r>
+  </si>
+  <si>
+    <t>TMY</t>
+  </si>
+  <si>
+    <t>Inverter=sd</t>
+  </si>
+  <si>
+    <t>Solar by Typical Meteorological Year (TMY)</t>
+  </si>
+  <si>
+    <t>Clear Sky</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -379,7 +411,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -494,6 +526,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -539,9 +586,21 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1006,20 +1065,1467 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Yearly Yeild</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> Solar</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Energy </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12802537182852144"/>
+          <c:y val="0.11615740740740743"/>
+          <c:w val="0.82717869641294828"/>
+          <c:h val="0.77644320501603947"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NCF_Wind_Solar_Charlotte_Boulde!$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TMY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>NCF_Wind_Solar_Charlotte_Boulde!$K$3:$K$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Charlotte</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Boulder</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Boston</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Tucson</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NCF_Wind_Solar_Charlotte_Boulde!$F$23:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>359.089572917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>385.34104614099999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>332.54042693900004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>438.13125857699998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6D59-4512-A8B1-46083AE39DF2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="655127888"/>
+        <c:axId val="655128208"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="655127888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="655128208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="655128208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>KWh</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="655127888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.84964851268591435"/>
+          <c:y val="6.0971493146689995E-2"/>
+          <c:w val="9.4795931758530183E-2"/>
+          <c:h val="0.15625109361329834"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Yearly Net Capacity Factor</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12802537182852144"/>
+          <c:y val="0.11615740740740743"/>
+          <c:w val="0.82717869641294828"/>
+          <c:h val="0.77644320501603947"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NCF_Wind_Solar_Charlotte_Boulde!$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TMY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>NCF_Wind_Solar_Charlotte_Boulde!$K$3:$K$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Charlotte</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Boulder</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Boston</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Tucson</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NCF_Wind_Solar_Charlotte_Boulde!$G$23:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.18632699999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19994899999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17255100000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22734099999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C5D6-436B-984C-A292DDAF6AE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="655127888"/>
+        <c:axId val="655128208"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="655127888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="655128208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="655128208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="655127888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.84964851268591435"/>
+          <c:y val="6.0971493146689995E-2"/>
+          <c:w val="9.4795931758530183E-2"/>
+          <c:h val="0.15625109361329834"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>2009 Net Capacity Factor</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13913648293963254"/>
+          <c:y val="0.11615740740740743"/>
+          <c:w val="0.81606758530183721"/>
+          <c:h val="0.77644320501603947"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NCF_Wind_Solar_Charlotte_Boulde!$I$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Wind Energy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>NCF_Wind_Solar_Charlotte_Boulde!$K$3:$K$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Charlotte</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Boulder</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Boston</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Tucson</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NCF_Wind_Solar_Charlotte_Boulde!$I$47:$I$50</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.29099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.249</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21099999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-ECD1-4B08-9D55-F42584DAD30B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NCF_Wind_Solar_Charlotte_Boulde!$J$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Solar Energy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>NCF_Wind_Solar_Charlotte_Boulde!$K$3:$K$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Charlotte</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Boulder</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Boston</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Tucson</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NCF_Wind_Solar_Charlotte_Boulde!$J$47:$J$50</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.18632699999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19994899999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17255100000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22734099999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-ECD1-4B08-9D55-F42584DAD30B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="655127888"/>
+        <c:axId val="655128208"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="655127888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="655128208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="655128208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>NCF</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="655127888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.77187073490813662"/>
+          <c:y val="6.0971493146689995E-2"/>
+          <c:w val="0.18646259842519686"/>
+          <c:h val="0.12847331583552055"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>2010 Net Capacity Factor</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13635870516185475"/>
+          <c:y val="0.11615740740740743"/>
+          <c:w val="0.81884536307961509"/>
+          <c:h val="0.77644320501603947"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NCF_Wind_Solar_Charlotte_Boulde!$M$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Wind Energy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>NCF_Wind_Solar_Charlotte_Boulde!$K$3:$K$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Charlotte</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Boulder</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Boston</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Tucson</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NCF_Wind_Solar_Charlotte_Boulde!$M$47:$M$50</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.46500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22600000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F33C-49BB-9E06-E77875D1D23A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NCF_Wind_Solar_Charlotte_Boulde!$N$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Solar Energy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>NCF_Wind_Solar_Charlotte_Boulde!$K$3:$K$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Charlotte</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Boulder</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Boston</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Tucson</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NCF_Wind_Solar_Charlotte_Boulde!$N$47:$N$50</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.18632699999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19994899999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17255100000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22734099999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F33C-49BB-9E06-E77875D1D23A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="655127888"/>
+        <c:axId val="655128208"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="655127888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="655128208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="655128208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>NCF</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="655127888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.77187073490813662"/>
+          <c:y val="6.0971493146689995E-2"/>
+          <c:w val="0.18646259842519686"/>
+          <c:h val="0.12847331583552055"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>491490</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1039,6 +2545,158 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>156210</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39DA2AA1-8842-4473-B8E5-2B7D36D4EE1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4C71B15-FAF7-4AA1-A8C2-B07FB904EF37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B8FABF8-5CA1-4C8A-9B2C-2DD6DC857C22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2E10D2C-D668-4262-AE7D-6B640E12F0A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1343,446 +3001,579 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="D41" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
         <v>0</v>
       </c>
-      <c r="N1" t="s">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2">
-        <v>2017</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="2">
+        <v>2009</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2">
-        <v>2018</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
+      <c r="O2" s="2">
+        <v>2010</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K2">
+      <c r="Q2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>446037</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.23139999999999999</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2">
+        <v>446043</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.23139999999999999</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="2">
+        <v>3819</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="2">
+        <v>3545</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>491582</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.25509999999999999</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>491591</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.25509999999999999</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="2">
+        <v>3278</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.249</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P4" s="2">
+        <v>2677</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0.20399999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <v>451895</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.23449999999999999</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2">
+        <v>451908</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.23449999999999999</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="2">
+        <v>5440</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" s="2">
+        <v>6108</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0.46500000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <v>467728</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.2427</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="2">
+        <v>467733</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.2427</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="2">
+        <v>2770</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P6" s="2">
+        <v>2970</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0.22600000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2">
         <v>2009</v>
       </c>
-      <c r="L2" t="s">
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2010</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2">
-        <v>2010</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="B9" s="2">
+        <v>446028</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.23139999999999999</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+      <c r="F9" s="2">
+        <v>446035</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.23139999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>446037</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.23139999999999999</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="B10" s="2">
+        <v>491571</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.25509999999999999</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3">
-        <v>446043</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.23139999999999999</v>
-      </c>
-      <c r="K3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3">
-        <v>3819</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="O3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P3">
-        <v>3545</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
+      <c r="F10" s="2">
+        <v>491582</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.25509999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>491582</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.25509999999999999</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="B11" s="2">
+        <v>451885</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.23449999999999999</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F4">
-        <v>491591</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.25509999999999999</v>
-      </c>
-      <c r="K4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4">
-        <v>3278</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0.249</v>
-      </c>
-      <c r="O4" t="s">
-        <v>6</v>
-      </c>
-      <c r="P4">
-        <v>2677</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>0.20399999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
+      <c r="F11" s="2">
+        <v>451899</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.23449999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>451895</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.23449999999999999</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="B12" s="2">
+        <v>467719</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.2427</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F5">
-        <v>451908</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.23449999999999999</v>
-      </c>
-      <c r="K5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5">
-        <v>5440</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0.41399999999999998</v>
-      </c>
-      <c r="O5" t="s">
-        <v>7</v>
-      </c>
-      <c r="P5">
-        <v>6108</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>0.46500000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>467728</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.2427</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6">
-        <v>467733</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.2427</v>
-      </c>
-      <c r="K6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6">
-        <v>2770</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0.21099999999999999</v>
-      </c>
-      <c r="O6" t="s">
-        <v>8</v>
-      </c>
-      <c r="P6">
-        <v>2970</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>0.22600000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8">
-        <v>2009</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>2010</v>
-      </c>
-      <c r="F8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>446028</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.23139999999999999</v>
-      </c>
-      <c r="E9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9">
-        <v>446035</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.23139999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>491571</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.25509999999999999</v>
-      </c>
-      <c r="E10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10">
-        <v>491582</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0.25509999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>451885</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.23449999999999999</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11">
-        <v>451899</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0.23449999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12">
-        <v>467719</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.2427</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>467726</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="3">
         <v>0.2427</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="2">
+        <v>2009</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2010</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14">
-        <v>2009</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14">
-        <v>2010</v>
-      </c>
-      <c r="F14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
+      <c r="B15" s="2">
+        <v>446</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.23139999999999999</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="2">
+        <v>446</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.23139999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B15">
-        <v>446</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.23139999999999999</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="B16" s="2">
+        <v>492</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.25509999999999999</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F15">
-        <v>446</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0.23139999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
+      <c r="F16" s="2">
+        <v>492</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.25509999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B16">
-        <v>492</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.25509999999999999</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="B17" s="2">
+        <v>452</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.23449999999999999</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F16">
-        <v>492</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0.25509999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
+      <c r="F17" s="2">
+        <v>452</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.23449999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B17">
-        <v>452</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.23449999999999999</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="B18" s="2">
+        <v>468</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.2427</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F17">
-        <v>452</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0.23449999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
+      <c r="F18" s="2">
+        <v>468</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.2427</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B18">
-        <v>468</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0.2427</v>
-      </c>
-      <c r="E18" t="s">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F18">
-        <v>468</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0.2427</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="2">
+        <v>359089.57291699998</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.18632699999999999</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="2">
+        <f>B23/1000</f>
+        <v>359.089572917</v>
+      </c>
+      <c r="G23" s="3">
+        <f>C23</f>
+        <v>0.18632699999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="2">
+        <v>385341.046141</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.19994899999999999</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" ref="F24:F26" si="0">B24/1000</f>
+        <v>385.34104614099999</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" ref="G24:G26" si="1">C24</f>
+        <v>0.19994899999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="2">
+        <v>332540.42693900003</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.17255100000000001</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="0"/>
+        <v>332.54042693900004</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="1"/>
+        <v>0.17255100000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="2">
+        <v>438131.258577</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.22734099999999999</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="0"/>
+        <v>438.13125857699998</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="1"/>
+        <v>0.22734099999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>2009</v>
       </c>
       <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" t="s">
         <v>10</v>
       </c>
-      <c r="D43" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F43" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="18.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" t="s">
         <v>4</v>
-      </c>
-      <c r="C44" t="s">
-        <v>3</v>
-      </c>
-      <c r="D44" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" t="s">
-        <v>5</v>
       </c>
       <c r="B45">
         <v>3819</v>
@@ -1796,10 +3587,24 @@
       <c r="E45" s="1">
         <v>0.23139999999999999</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="H45" s="5">
+        <v>2009</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J45" s="5"/>
+      <c r="L45" s="5">
+        <v>2010</v>
+      </c>
+      <c r="M45" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N45" s="5"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B46">
         <v>3278</v>
@@ -1813,10 +3618,24 @@
       <c r="E46" s="1">
         <v>0.25509999999999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="H46" s="5"/>
+      <c r="I46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L46" s="5"/>
+      <c r="M46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B47">
         <v>5440</v>
@@ -1830,10 +3649,28 @@
       <c r="E47" s="1">
         <v>0.23449999999999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="H47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0.18632699999999999</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0.27</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0.18632699999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B48">
         <v>2770</v>
@@ -1847,26 +3684,82 @@
       <c r="E48" s="1">
         <v>0.2427</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="H48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0.249</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0.19994899999999999</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0.19994899999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="H49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0.17255100000000001</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0.17255100000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>2009</v>
       </c>
       <c r="B50" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I50" s="3">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="J50" s="3">
+        <v>0.22734099999999999</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0.22734099999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s">
         <v>10</v>
       </c>
-      <c r="C51" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B52" s="1">
         <v>0.29099999999999998</v>
@@ -1875,9 +3768,9 @@
         <v>0.23139999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B53" s="1">
         <v>0.249</v>
@@ -1886,9 +3779,9 @@
         <v>0.25509999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B54" s="1">
         <v>0.41399999999999998</v>
@@ -1897,9 +3790,9 @@
         <v>0.23449999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B55" s="1">
         <v>0.21099999999999999</v>
@@ -1908,25 +3801,25 @@
         <v>0.2427</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B58" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" t="s">
         <v>10</v>
       </c>
-      <c r="C59" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B60" s="1">
         <v>0.27</v>
@@ -1935,9 +3828,9 @@
         <v>0.23139999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B61" s="1">
         <v>0.20399999999999999</v>
@@ -1946,9 +3839,9 @@
         <v>0.25509999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B62" s="1">
         <v>0.46500000000000002</v>
@@ -1957,9 +3850,9 @@
         <v>0.23449999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B63" s="1">
         <v>0.22600000000000001</v>
@@ -1969,7 +3862,14 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="M45:N45"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>